--- a/medicine/Médecine vétérinaire/Études_vétérinaires_en_Suisse/Études_vétérinaires_en_Suisse.xlsx
+++ b/medicine/Médecine vétérinaire/Études_vétérinaires_en_Suisse/Études_vétérinaires_en_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_v%C3%A9t%C3%A9rinaires_en_Suisse</t>
+          <t>Études_vétérinaires_en_Suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études vétérinaires en Suisse durent cinq ans et sont suivies d'une à deux années d'assistanat. Deux universités dispensent la formation permettant d'accéder au diplôme de vétérinaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_v%C3%A9t%C3%A9rinaires_en_Suisse</t>
+          <t>Études_vétérinaires_en_Suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nécessaire d'être titulaire d'une maturité fédérale[1] ou équivalent, et de réussir le test d'aptitude des études en médecine, auquel un numerus clausus s'applique depuis 1999[1],[2]. En 2018, le taux d'admission était inférieur à 40 %[2].
-L'université de Berne dispose de 76 places tandis que celle de Zurich propose 90 places[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nécessaire d'être titulaire d'une maturité fédérale ou équivalent, et de réussir le test d'aptitude des études en médecine, auquel un numerus clausus s'applique depuis 1999,. En 2018, le taux d'admission était inférieur à 40 %.
+L'université de Berne dispose de 76 places tandis que celle de Zurich propose 90 places.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tudes_v%C3%A9t%C3%A9rinaires_en_Suisse</t>
+          <t>Études_vétérinaires_en_Suisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bachelor dure trois ans et le master deux ans[4]. Les cours sont dispensés en allemand, mais les examens peuvent être passés soit en allemand, soit en français[4].
-Les cinq années sont sanctionnées par l'obtention du master en médecine vétérinaire[1]. Pour avoir l'autorisation d'exercer, les titulaires du master doivent réussir un examen fédéral[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bachelor dure trois ans et le master deux ans. Les cours sont dispensés en allemand, mais les examens peuvent être passés soit en allemand, soit en français.
+Les cinq années sont sanctionnées par l'obtention du master en médecine vétérinaire. Pour avoir l'autorisation d'exercer, les titulaires du master doivent réussir un examen fédéral.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tudes_v%C3%A9t%C3%A9rinaires_en_Suisse</t>
+          <t>Études_vétérinaires_en_Suisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Universités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les universités de Berne et de Zurich dispensent la formation pour devenir vétérinaire[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les universités de Berne et de Zurich dispensent la formation pour devenir vétérinaire.
 </t>
         </is>
       </c>
